--- a/stat_arb/pair_perform/002555.SZ@002624.SZ.xlsx
+++ b/stat_arb/pair_perform/002555.SZ@002624.SZ.xlsx
@@ -444,22 +444,22 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>326480.8678511935</v>
+        <v>51256.13787480909</v>
       </c>
       <c r="E2">
-        <v>0.5574694489713843</v>
+        <v>0.0875203840443568</v>
       </c>
       <c r="F2">
-        <v>0.5574694489713843</v>
+        <v>0.0875203840443568</v>
       </c>
       <c r="G2">
-        <v>3.122368969993665</v>
+        <v>0.4899754117114284</v>
       </c>
       <c r="H2">
-        <v>0.1175680125832719</v>
+        <v>0.1634127447336493</v>
       </c>
       <c r="I2">
-        <v>130</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
